--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/4.TraBH/TBH211214_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang12/4.TraBH/TBH211214_TechGlobal.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>Báo giá không sủa</t>
+  </si>
+  <si>
+    <t>Đã trả ngày: 29/11/21</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại anten GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048289733, Đã trả ngày 29/11/21</t>
   </si>
 </sst>
 </file>
@@ -867,6 +879,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -920,84 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1353,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1376,77 +1388,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="35" t="s">
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="38" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="38" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="41" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1455,58 +1467,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
       <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1567,7 @@
       <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="37" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="31" t="s">
@@ -1564,7 +1576,7 @@
       <c r="H12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="69"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,14 +1593,14 @@
       <c r="E13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="68"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="31" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="69"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,14 +1617,14 @@
       <c r="E14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="31" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="69"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,7 +1648,7 @@
       <c r="H15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="69"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,14 +1665,14 @@
       <c r="E16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="31" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="69"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,7 +1694,7 @@
       <c r="H17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="69"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,7 +1718,7 @@
       <c r="H18" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="69"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1730,7 +1742,7 @@
       <c r="H19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="69"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1754,7 +1766,7 @@
       <c r="H20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="73"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1771,7 +1783,7 @@
       <c r="E21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="39" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="31" t="s">
@@ -1780,7 +1792,7 @@
       <c r="H21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="73"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,7 +1816,7 @@
       <c r="H22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="69"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1828,7 +1840,7 @@
       <c r="H23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1845,14 +1857,14 @@
       <c r="E24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="68"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="31" t="s">
         <v>49</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="69"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,14 +1881,14 @@
       <c r="E25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,14 +1905,14 @@
       <c r="E26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="31" t="s">
         <v>51</v>
       </c>
       <c r="H26" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,14 +1929,14 @@
       <c r="E27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="31" t="s">
         <v>51</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="69"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,7 +1975,7 @@
       <c r="E29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="38" t="s">
         <v>57</v>
       </c>
       <c r="G29" s="31" t="s">
@@ -1972,7 +1984,7 @@
       <c r="H29" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="73">
+      <c r="I29" s="40">
         <v>275000</v>
       </c>
       <c r="J29" s="20"/>
@@ -2024,7 +2036,7 @@
       <c r="H31" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="73">
+      <c r="I31" s="40">
         <v>275000</v>
       </c>
       <c r="J31" s="20"/>
@@ -2043,14 +2055,14 @@
       <c r="E32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="31" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="I32" s="73"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,14 +2079,14 @@
       <c r="E33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="31" t="s">
         <v>63</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="40">
         <v>63000</v>
       </c>
       <c r="J33" s="20"/>
@@ -2086,14 +2098,14 @@
       <c r="B34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="41">
         <v>868004026310865</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="31" t="s">
         <v>67</v>
       </c>
@@ -2110,14 +2122,14 @@
       <c r="B35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="41">
         <v>869668021820695</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="31" t="s">
         <v>68</v>
       </c>
@@ -2134,14 +2146,14 @@
       <c r="B36" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="41">
         <v>866593020298284</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="31"/>
       <c r="H36" s="33" t="s">
         <v>25</v>
@@ -2156,14 +2168,14 @@
       <c r="B37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="41">
         <v>867330021475671</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="68"/>
+      <c r="F37" s="35"/>
       <c r="G37" s="31" t="s">
         <v>50</v>
       </c>
@@ -2180,21 +2192,21 @@
       <c r="B38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="41">
         <v>867330021519098</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="31" t="s">
         <v>63</v>
       </c>
       <c r="H38" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I38" s="73">
+      <c r="I38" s="40">
         <v>12000</v>
       </c>
       <c r="J38" s="20"/>
@@ -2206,14 +2218,14 @@
       <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="41">
         <v>869668023313301</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="68"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="31" t="s">
         <v>69</v>
       </c>
@@ -2237,7 +2249,7 @@
       <c r="E40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="70" t="s">
+      <c r="F40" s="37" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="31" t="s">
@@ -2270,7 +2282,7 @@
       <c r="H41" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="73">
+      <c r="I41" s="40">
         <v>38000</v>
       </c>
       <c r="J41" s="20"/>
@@ -2282,21 +2294,21 @@
       <c r="B42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="42" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="71"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="31" t="s">
         <v>78</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I42" s="73"/>
+      <c r="I42" s="40"/>
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2342,7 +2354,7 @@
       <c r="H44" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="I44" s="73"/>
+      <c r="I44" s="40"/>
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2369,84 +2381,116 @@
       <c r="I45" s="31"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="76" t="s">
+    <row r="46" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>35</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="32">
+        <v>868183038048067</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="40"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
+        <v>36</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="32">
+        <v>869696043475685</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="40">
+        <v>275000</v>
+      </c>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="69">
-        <f>SUM(I12:I45)</f>
-        <v>663000</v>
-      </c>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="36">
+        <f>SUM(I12:I47)</f>
+        <v>938000</v>
+      </c>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="14" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="63" t="s">
+      <c r="E50" s="14"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-    </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="67" t="s">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-    </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="28"/>
-    </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="28"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
@@ -2460,55 +2504,77 @@
       <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="29"/>
-    </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="66" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="29"/>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="66" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-    </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-    </row>
-    <row r="96" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+    </row>
+    <row r="98" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G56:I56"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
